--- a/bin/frameCfg/Variable/VariableConfig.xlsx
+++ b/bin/frameCfg/Variable/VariableConfig.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22430"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F50B617-F339-451B-B752-2A889B7D154F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-15345" yWindow="2175" windowWidth="16485" windowHeight="13245"/>
+    <workbookView xWindow="2020" yWindow="3030" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -119,7 +120,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -272,7 +273,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -305,9 +306,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -340,6 +358,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -515,42 +550,42 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.875" customWidth="1"/>
-    <col min="2" max="2" width="13.25" customWidth="1"/>
-    <col min="3" max="3" width="7.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="2.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.36328125" customWidth="1"/>
+    <col min="2" max="2" width="13.26953125" customWidth="1"/>
+    <col min="3" max="3" width="7.08984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="7.453125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.453125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="2.453125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="13" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="13" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="2.5" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="2.5" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="2.453125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.08984375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="2.453125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.08984375" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="13" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="11" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="3.5" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="3.453125" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="13" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="2.5" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="2.453125" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="13" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="11" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="7.125" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="3.5" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="7.08984375" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="3.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -559,7 +594,7 @@
       </c>
       <c r="D1" s="2"/>
     </row>
-    <row r="2" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -571,7 +606,7 @@
       </c>
       <c r="N2" s="1"/>
     </row>
-    <row r="3" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
@@ -580,44 +615,44 @@
       </c>
       <c r="N3" s="1"/>
     </row>
-    <row r="4" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N4" s="1"/>
     </row>
-    <row r="5" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N5" s="1"/>
     </row>
-    <row r="6" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="4">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D6" s="2"/>
       <c r="N6" s="1"/>
     </row>
-    <row r="7" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N7" s="1"/>
     </row>
-    <row r="8" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>8</v>
       </c>
@@ -626,21 +661,21 @@
       </c>
       <c r="N8" s="1"/>
     </row>
-    <row r="9" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B9" s="4"/>
       <c r="N9" s="1"/>
     </row>
-    <row r="10" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>10</v>
       </c>
       <c r="B10" s="4"/>
       <c r="N10" s="1"/>
     </row>
-    <row r="11" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>11</v>
       </c>
@@ -650,7 +685,7 @@
       <c r="D11" s="3"/>
       <c r="N11" s="1"/>
     </row>
-    <row r="12" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>12</v>
       </c>
@@ -660,7 +695,7 @@
       <c r="D12" s="3"/>
       <c r="N12" s="1"/>
     </row>
-    <row r="13" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>13</v>
       </c>
@@ -673,7 +708,7 @@
       <c r="D13" s="3"/>
       <c r="N13" s="1"/>
     </row>
-    <row r="14" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>16</v>
       </c>
@@ -683,7 +718,7 @@
       <c r="D14" s="3"/>
       <c r="N14" s="1"/>
     </row>
-    <row r="15" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>17</v>
       </c>
@@ -694,7 +729,7 @@
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
     </row>
-    <row r="16" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>18</v>
       </c>
@@ -705,7 +740,7 @@
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
     </row>
-    <row r="17" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>19</v>
       </c>
@@ -716,7 +751,7 @@
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
     </row>
-    <row r="18" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>20</v>
       </c>
@@ -729,7 +764,7 @@
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
     </row>
-    <row r="19" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>23</v>
       </c>
@@ -740,70 +775,70 @@
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
     </row>
-    <row r="20" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="D20" s="3"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
     </row>
-    <row r="21" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="D21" s="3"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
     </row>
-    <row r="22" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="D22" s="3"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
     </row>
-    <row r="23" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="D23" s="3"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
     </row>
-    <row r="25" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="C25" s="1"/>
     </row>
-    <row r="26" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="1"/>
     </row>
-    <row r="27" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="1"/>
     </row>
-    <row r="28" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="1"/>
     </row>
-    <row r="29" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="1"/>
     </row>
-    <row r="30" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="1"/>
     </row>
-    <row r="31" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="1"/>
     </row>
-    <row r="32" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="1"/>
     </row>
-    <row r="33" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="1"/>
     </row>
-    <row r="34" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
     </row>
